--- a/pred_ohlcv/54_21/2019-10-27 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 MITH ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-124857.1353035705</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-124857.1353035705</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-130032.1353035705</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-130032.1353035705</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-130032.1353035705</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-209556.1353035705</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-131056.1353035705</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-158508.7411035704</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-168487.7345035704</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-164437.7345035704</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-181165.9834035705</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-279581.1853035705</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-387581.1853035705</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-391551.7713035705</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-391551.7713035705</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-770483.7904035706</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-752453.7904035706</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-742453.7904035706</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-723345.4365624747</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-712531.7587624748</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-713252.8384624748</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-785217.1534624747</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-785227.1534624747</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-776808.0396624746</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-774538.7845624747</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-773650.8254624747</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-793296.1604624747</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-793296.1604624747</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-793296.1604624747</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-793307.2562624747</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-793297.2562624747</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-795263.5372624747</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-855636.1161624746</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-855636.1161624746</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-852590.2707624746</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-852590.2707624746</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-911859.9846624746</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-911835.9846624746</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-961921.9676624746</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-961921.9676624746</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-961921.9676624746</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1230371.960262475</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1230361.960262475</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1260361.960262475</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1260361.960262475</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 MITH ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-124857.1353035705</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-124857.1353035705</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-130032.1353035705</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-130032.1353035705</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-130032.1353035705</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-209556.1353035705</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-158508.7411035704</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-158487.7345035704</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-168487.7345035704</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-164437.7345035704</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-181165.9834035705</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-279581.1853035705</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-387581.1853035705</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-770483.7904035706</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-752453.7904035706</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-742453.7904035706</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-647837.3551624747</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-641694.8922624746</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-709345.4365624747</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-713252.8384624748</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-713242.8384624748</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-713242.8384624748</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-785217.1534624747</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-785227.1534624747</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-776808.0396624746</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-774538.7845624747</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-773650.8254624747</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-793407.1604624747</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-793296.1604624747</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-793296.1604624747</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-793296.1604624747</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-793307.2562624747</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-793297.2562624747</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-795263.5372624747</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-883236.1161624746</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-855636.1161624746</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-855636.1161624746</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-852590.2707624746</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-852590.2707624746</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-911859.9846624746</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-911835.9846624746</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-961921.9676624746</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-961921.9676624746</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-961921.9676624746</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1230371.960262475</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1230361.960262475</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1260361.960262475</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1260361.960262475</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
